--- a/iselUssSyncV2/OutputWSL/20220428_1255_D50L474W90Q30.0U0.36H104G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1255_D50L474W90Q30.0U0.36H104G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>104.30051587301578</v>
+        <v>104.30144664003694</v>
       </c>
       <c r="F2" s="0">
-        <v>104.63301587301594</v>
+        <v>104.63394664003683</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>104.9842857142857</v>
+        <v>104.98656092255926</v>
       </c>
       <c r="F3" s="0">
-        <v>106.46023809523805</v>
+        <v>106.4625133035116</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>104.46597609561746</v>
+        <v>104.46872702925735</v>
       </c>
       <c r="F4" s="0">
-        <v>108.2502788844622</v>
+        <v>108.25302981810196</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>103.90126984126979</v>
+        <v>103.90407593147383</v>
       </c>
       <c r="F5" s="0">
-        <v>108.57035714285718</v>
+        <v>108.57316323306102</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>102.9015476190477</v>
+        <v>102.90440197124533</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>101.15541832669327</v>
+        <v>101.1583140463141</v>
       </c>
       <c r="F7" s="0">
-        <v>108.17059760956181</v>
+        <v>108.17349332918248</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>98.189206349206273</v>
+        <v>98.192136541679758</v>
       </c>
       <c r="F8" s="0">
-        <v>103.78607142857147</v>
+        <v>103.7890016210449</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +260,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>96.467529880478168</v>
+        <v>96.470471931612849</v>
       </c>
       <c r="F9" s="0">
-        <v>99.818764940239078</v>
+        <v>99.821706991373787</v>
       </c>
     </row>
     <row r="10">
@@ -280,10 +280,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>94.692669322709179</v>
+        <v>94.695622129373888</v>
       </c>
       <c r="F10" s="0">
-        <v>89.713067729083662</v>
+        <v>89.716020535748413</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +300,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>93.443015873015867</v>
+        <v>93.445978332079321</v>
       </c>
       <c r="F11" s="0">
-        <v>85.154960317460294</v>
+        <v>85.157922776523804</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +320,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>92.671394422310712</v>
+        <v>92.674361293899338</v>
       </c>
       <c r="F12" s="0">
-        <v>83.345537848605559</v>
+        <v>83.3485047201942</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +340,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>92.404063745019911</v>
+        <v>92.407034753350871</v>
       </c>
       <c r="F13" s="0">
-        <v>80.321314741035863</v>
+        <v>80.324285749366808</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +360,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>91.817579365079354</v>
+        <v>91.820554234369808</v>
       </c>
       <c r="F14" s="0">
-        <v>81.983253968253976</v>
+        <v>81.986228837544417</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +380,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>91.612589641434298</v>
+        <v>91.615568095901324</v>
       </c>
       <c r="F15" s="0">
-        <v>81.741713147410351</v>
+        <v>81.744691601877477</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +400,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>91.60051587301588</v>
+        <v>91.603500670487875</v>
       </c>
       <c r="F16" s="0">
-        <v>86.851785714285697</v>
+        <v>86.854770511757707</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>92.8252988047809</v>
+        <v>92.828288842126497</v>
       </c>
       <c r="F17" s="0">
-        <v>92.870119521912358</v>
+        <v>92.873109559257941</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +440,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>93.866972111553764</v>
+        <v>93.869966285641709</v>
       </c>
       <c r="F18" s="0">
-        <v>101.75494023904385</v>
+        <v>101.75793441313172</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +460,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>101.72992063492065</v>
+        <v>101.73291977309931</v>
       </c>
       <c r="F19" s="0">
-        <v>103.0836507936508</v>
+        <v>103.08664993182944</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>97.345418326693235</v>
+        <v>97.348417464871915</v>
       </c>
       <c r="F20" s="0">
-        <v>94.099083665338625</v>
+        <v>94.10208280351732</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +500,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>91.716693227091611</v>
+        <v>91.719685470699801</v>
       </c>
       <c r="F21" s="0">
-        <v>101.60952191235062</v>
+        <v>101.61251415595878</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +520,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>98.410674603174598</v>
+        <v>98.413653057641724</v>
       </c>
       <c r="F22" s="0">
-        <v>99.095119047619022</v>
+        <v>99.098097502086162</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>102.87920634920637</v>
+        <v>102.88216411996189</v>
       </c>
       <c r="F23" s="0">
-        <v>98.634920634920633</v>
+        <v>98.637878405676176</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +560,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>97.197928286852601</v>
+        <v>97.200824006473383</v>
       </c>
       <c r="F24" s="0">
-        <v>99.144302788844598</v>
+        <v>99.147198508465422</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +580,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>94.310159362549797</v>
+        <v>94.312965452753758</v>
       </c>
       <c r="F25" s="0">
-        <v>99.472549800796799</v>
+        <v>99.47535589100076</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +600,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>103.76322709163348</v>
+        <v>103.76591597413851</v>
       </c>
       <c r="F26" s="0">
-        <v>100.2188047808765</v>
+        <v>100.22149366338152</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>95.029920634920643</v>
+        <v>95.03246473144462</v>
       </c>
       <c r="F27" s="0">
-        <v>99.957063492063483</v>
+        <v>99.959607588587488</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +640,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>98.370119521912358</v>
+        <v>98.372491254173198</v>
       </c>
       <c r="F28" s="0">
-        <v>99.542629482071717</v>
+        <v>99.54500121433253</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +660,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>99.869880478087637</v>
+        <v>99.872052267803269</v>
       </c>
       <c r="F29" s="0">
-        <v>99.690836653386441</v>
+        <v>99.693008443102059</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +680,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>101.49924302788844</v>
+        <v>101.50093219766724</v>
       </c>
       <c r="F30" s="0">
-        <v>99.064741035856571</v>
+        <v>99.066430205635385</v>
       </c>
     </row>
   </sheetData>
